--- a/Tabla_4_IEEE.xlsx
+++ b/Tabla_4_IEEE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milla\Documents\Maestria (Tesis)\Capitulo 2\Programa_para_modelo _optimizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C557FCC1-7169-4AAE-9B9B-64D9D677162D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9DE7B4-FD4C-432D-AA33-0B696F49A5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -271,13 +271,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -563,7 +563,7 @@
   <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,8 +571,8 @@
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="3" width="15.44140625" customWidth="1"/>
     <col min="4" max="4" width="12.21875" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
@@ -583,202 +583,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>2940</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>60</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>20</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>450</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>50</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>50</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1980</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>20</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>76</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>1960</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>40</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>100</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>1200</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>50</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>155</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>960</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>40</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>197</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>950</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>50</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>350</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>1150</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>400</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>1100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>150</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>6</v>
       </c>
     </row>
@@ -786,10 +786,10 @@
       <c r="C68" t="s">
         <v>53</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E68" s="2"/>
+      <c r="E68" s="4"/>
       <c r="F68" t="s">
         <v>55</v>
       </c>
